--- a/existing_cisco_ise_authz_profile.xlsx
+++ b/existing_cisco_ise_authz_profile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USER1-Profile</t>
+          <t>USER01-Profile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>261008b0-452b-11ef-9d7c-da249a971f68</t>
+          <t>5096dce0-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>USER1</t>
+          <t>USER01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -514,12 +514,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USER2-Profile</t>
+          <t>USER02-Profile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>263284d0-452b-11ef-9d7c-da249a971f68</t>
+          <t>5289fa50-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>USER2</t>
+          <t>USER02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USER3-Profile</t>
+          <t>USER03-Profile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>265464b0-452b-11ef-9d7c-da249a971f68</t>
+          <t>54888970-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>USER3</t>
+          <t>USER03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -580,12 +580,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PILOT-VPN-01-Profile</t>
+          <t>USER04-Profile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2676b9c0-452b-11ef-9d7c-da249a971f68</t>
+          <t>567fc590-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PILOT-VPN-01</t>
+          <t>USER04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -603,21 +603,9 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10.120.1.103</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10.122.1.103</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>pilot.test.com</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -625,12 +613,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PILOT-VPN-02-Profile</t>
+          <t>USER05-Profile</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26a39620-452b-11ef-9d7c-da249a971f68</t>
+          <t>58726dd0-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -640,7 +628,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PILOT-VPN-02</t>
+          <t>USER05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,16 +636,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10.120.1.103</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>10.122.1.103</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -666,12 +646,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PILOT-VPN-03-Profile</t>
+          <t>USER06-Profile</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26cc53d0-452b-11ef-9d7c-da249a971f68</t>
+          <t>5a62a510-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -681,7 +661,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PILOT-VPN-03</t>
+          <t>USER06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -689,11 +669,7 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10.120.1.103</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -703,12 +679,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IOC-VPN-01-Profile</t>
+          <t>USER07-Profile</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26f42720-452b-11ef-9d7c-da249a971f68</t>
+          <t>5c537890-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -718,7 +694,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>IOC-VPN-01</t>
+          <t>USER07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -726,21 +702,9 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10.120.1.103</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>10.122.1.103</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ioc.test.com</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,12 +712,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IOC-VPN-02-Profile</t>
+          <t>USER08-Profile</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>271bd360-452b-11ef-9d7c-da249a971f68</t>
+          <t>5e453670-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -763,7 +727,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IOC-VPN-02</t>
+          <t>USER08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -771,16 +735,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>10.120.1.103</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>10.122.1.103</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -789,12 +745,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IOC-VPN-03-Profile</t>
+          <t>USER09-Profile</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>27409970-452b-11ef-9d7c-da249a971f68</t>
+          <t>60611190-4fd4-11ef-bffd-a67a9a3e23a9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -804,7 +760,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IOC-VPN-03</t>
+          <t>USER09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -812,13 +768,870 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>10.120.1.103</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USER10-Profile</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6253e0e0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>USER10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-01-Profile</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6447e8b0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>pilot.test.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-02-Profile</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>66543370-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-03-Profile</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6853fb10-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-04-Profile</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6a560ca0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>pilot.test.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-05-Profile</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6c4f6ba0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-06-Profile</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6e735d10-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-07-Profile</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>707a50a0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>pilot.test.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-08-Profile</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>72784380-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-09-Profile</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7469da50-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-10-Profile</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7665aa50-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PILOT-VPN-10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>pilot.test.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IOC-VPN-01-Profile</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>787ffed0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>IOC-VPN-01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ioc.test.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IOC-VPN-02-Profile</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>7a898a70-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>IOC-VPN-02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IOC-VPN-03-Profile</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>7c8c5f50-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>IOC-VPN-03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IOC-VPN-04-Profile</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7e7f7cc0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>IOC-VPN-04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ioc.test.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IOC-VPN-05-Profile</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>80705040-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>IOC-VPN-05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>IOC-VPN-06-Profile</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8263e2e0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>IOC-VPN-06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IOC-VPN-07-Profile</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>84579c90-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>IOC-VPN-07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ioc.test.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>IOC-VPN-08-Profile</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>86534580-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>IOC-VPN-08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IOC-VPN-09-Profile</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8851d4a0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>IOC-VPN-09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>IOC-VPN-10-Profile</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8aa5d6c0-4fd4-11ef-bffd-a67a9a3e23a9</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tech Refresh</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>IOC-VPN-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10.120.1.103</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>10.122.1.103</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ioc.test.com</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
